--- a/game_logs.xlsx
+++ b/game_logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Round</t>
   </si>
@@ -49,16 +49,46 @@
     <t>Log Message</t>
   </si>
   <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>BREATH CHECK</t>
+  </si>
+  <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>Card: ENVIRONMENT (Val: 1) | Spent: 0 | Rolled: 7</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>EXPLORE</t>
+  </si>
+  <si>
+    <t>Card: TECHNICAL (Val: 4) | Spent: 3 | Rolled: 2</t>
+  </si>
+  <si>
+    <t>Quit</t>
+  </si>
+  <si>
+    <t>Returned to Boat</t>
+  </si>
+  <si>
     <t>P1</t>
   </si>
   <si>
-    <t>BREATH CHECK</t>
-  </si>
-  <si>
-    <t>Resolve</t>
-  </si>
-  <si>
-    <t>Card: ENCOUNTER (Val: 3) | Spent: 0 | Rolled: 1</t>
+    <t>Card: ENCOUNTER (Val: 3) | Spent: 2 | Rolled: 4</t>
+  </si>
+  <si>
+    <t>Card: TECHNICAL (Val: 2) | Spent: 2 | Rolled: 7</t>
+  </si>
+  <si>
+    <t>Card: SOPRANNATURAL (Val: 5) | Spent: 3 | Rolled: 1</t>
   </si>
   <si>
     <t>FAILURE</t>
@@ -67,52 +97,19 @@
     <t>Panic Increased</t>
   </si>
   <si>
-    <t>EXPLORE</t>
-  </si>
-  <si>
-    <t>Card: TECHNICAL (Val: 5) | Spent: 0 | Rolled: 3</t>
-  </si>
-  <si>
-    <t>Card: ENCOUNTER (Val: 5) | Spent: 0 | Rolled: 7</t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>Card: ENCOUNTER (Val: 1) | Spent: 0 | Rolled: 3</t>
-  </si>
-  <si>
-    <t>Card: SOPRANNATURAL (Val: 2) | Spent: 0 | Rolled: 5</t>
-  </si>
-  <si>
-    <t>Card: TECHNICAL (Val: 2) | Spent: 0 | Rolled: 7</t>
-  </si>
-  <si>
-    <t>Card: ENCOUNTER (Val: 5) | Spent: 0 | Rolled: 3</t>
-  </si>
-  <si>
     <t>Loot</t>
   </si>
   <si>
     <t>Acquire</t>
   </si>
   <si>
-    <t>Kit Medico</t>
-  </si>
-  <si>
-    <t>Fiocina</t>
+    <t>1 Moneta (Treasure +1)</t>
   </si>
   <si>
     <t>Rest</t>
@@ -127,37 +124,28 @@
     <t>SKIPPED</t>
   </si>
   <si>
-    <t>Card: ENCOUNTER (Val: 4) | Spent: 0 | Rolled: 6</t>
-  </si>
-  <si>
-    <t>Quit</t>
-  </si>
-  <si>
-    <t>Returned to Boat</t>
-  </si>
-  <si>
-    <t>Use Item</t>
-  </si>
-  <si>
-    <t>USED</t>
-  </si>
-  <si>
-    <t>Card: ENVIRONMENT + TECHNICAL (BOSS) (Val: 7) | Spent: 4 | Rolled: 2</t>
-  </si>
-  <si>
-    <t>Calm Down</t>
-  </si>
-  <si>
-    <t>Spent: 2 | Rolled: 2 (d4)</t>
-  </si>
-  <si>
-    <t>Panic Reduced</t>
-  </si>
-  <si>
-    <t>3 Monete (Treasure +3)</t>
-  </si>
-  <si>
-    <t>Card: ENVIRONMENT (Val: 3) | Spent: 0 | Rolled: 8</t>
+    <t>Card: TECHNICAL (Val: 1) | Spent: 0 | Rolled: 2</t>
+  </si>
+  <si>
+    <t>Card: ENCOUNTER (Val: 2) | Spent: 0 | Rolled: 3</t>
+  </si>
+  <si>
+    <t>Card: ENCOUNTER (Val: 5) | Spent: 2 | Rolled: 3</t>
+  </si>
+  <si>
+    <t>Attrezzi Pro</t>
+  </si>
+  <si>
+    <t>Card: SOPRANNATURAL (Val: 3) | Spent: 1 | Rolled: 2</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>No Score</t>
   </si>
   <si>
     <t>GameOver</t>
@@ -166,7 +154,7 @@
     <t>Win</t>
   </si>
   <si>
-    <t>Winner: P2 (Treasure: 3)</t>
+    <t>Winner: P1 (Treasure: 3)</t>
   </si>
   <si>
     <t>VICTORY</t>
@@ -533,7 +521,7 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -568,13 +556,13 @@
         <v>15</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>42</v>
       </c>
       <c r="I3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -591,31 +579,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>42</v>
+      </c>
+      <c r="I4">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>41</v>
-      </c>
-      <c r="I4">
-        <v>16</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -623,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -658,34 +646,34 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -693,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -702,25 +690,25 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>41</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>42</v>
-      </c>
-      <c r="I7">
-        <v>16</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -728,34 +716,34 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>41</v>
       </c>
       <c r="I8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -763,16 +751,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -781,13 +769,13 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -795,72 +783,72 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -868,34 +856,34 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -903,19 +891,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -924,115 +912,115 @@
         <v>40</v>
       </c>
       <c r="I13">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>40</v>
       </c>
       <c r="I14">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>39</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>40</v>
-      </c>
-      <c r="I15">
-        <v>16</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>39</v>
       </c>
       <c r="I16">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" t="s">
         <v>16</v>
@@ -1040,69 +1028,69 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
         <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>39</v>
       </c>
       <c r="I17">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" t="s">
         <v>16</v>
@@ -1110,22 +1098,22 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1134,138 +1122,138 @@
         <v>38</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I20">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J20">
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I21">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J21">
         <v>3</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1274,118 +1262,153 @@
         <v>37</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J25">
         <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>36</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
